--- a/docs/sample01.xlsx
+++ b/docs/sample01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musicool\Downloads\dev\rep\sheetSystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4CBDEE19-59B6-467E-871C-45838BC84A02}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7610257-F7A8-4AB0-978F-01C718E9EBCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1" xr2:uid="{643BD9F1-CB2F-4A12-B52B-8146260CFD2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{643BD9F1-CB2F-4A12-B52B-8146260CFD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="收付存" sheetId="1" r:id="rId1"/>
@@ -82,33 +82,17 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.00
-2.00
-1.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AAA
 AAB
 AAC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.00
-2.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>子库A
 子库B</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1.00
-1.00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AAA
 AAB</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -135,6 +119,25 @@
   </si>
   <si>
     <t>呆滞时长</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00
+2.00
+1.00
+小计:1.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00
+1.00
+小计:1.00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.00
+2.00
+小计:1.00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +146,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -326,122 +329,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,238 +762,240 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE6D1AE-88DA-46C2-BC11-95914CF76EC0}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="13" width="9.5" customWidth="1"/>
+    <col min="3" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="18" t="s">
+      <c r="D1" s="33"/>
+      <c r="E1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="str">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="str">
         <f>"000.000"</f>
         <v>000.000</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="25">
-        <v>1</v>
-      </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19" t="s">
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="str">
+    <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="str">
         <f>"000.001"</f>
         <v>000.001</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25">
-        <v>1</v>
-      </c>
-      <c r="D4" s="26">
-        <v>1</v>
-      </c>
-      <c r="E4" s="25">
-        <v>1</v>
-      </c>
-      <c r="F4" s="26">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="31">
-        <v>1</v>
-      </c>
-      <c r="I4" s="28">
-        <v>1</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="25">
-        <v>1</v>
-      </c>
-      <c r="L4" s="26">
-        <v>1</v>
-      </c>
-      <c r="M4" s="29" t="s">
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="25">
+        <v>1</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="19">
+        <v>1</v>
+      </c>
+      <c r="L4" s="20">
+        <v>1</v>
+      </c>
+      <c r="M4" s="23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="str">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="str">
         <f>"000.002"</f>
         <v>000.002</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="25">
-        <v>1</v>
-      </c>
-      <c r="D5" s="26">
-        <v>1</v>
-      </c>
-      <c r="E5" s="25">
-        <v>1</v>
-      </c>
-      <c r="F5" s="30">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="26">
-        <v>1</v>
-      </c>
-      <c r="I5" s="26">
-        <v>1</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="25">
-        <v>1</v>
-      </c>
-      <c r="L5" s="30">
-        <v>1</v>
-      </c>
-      <c r="M5" s="29" t="s">
+      <c r="C5" s="19">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="24">
+        <v>1</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="24">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="17">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="17">
-        <v>1</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="3">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="17">
-        <v>1</v>
-      </c>
-      <c r="L6" s="10">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1012,7 +1017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7F3C3D-3F77-4E1D-A30B-AE70263AA751}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
@@ -1024,149 +1029,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="32"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
+      <c r="B1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="33" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="33" t="s">
+      <c r="F2" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" s="11"/>
+      <c r="I2" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="str">
+      <c r="A3" s="18" t="str">
         <f>"000.001"</f>
         <v>000.001</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="26">
-        <v>1</v>
-      </c>
-      <c r="E3" s="26">
-        <v>1</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="26">
-        <v>1</v>
-      </c>
-      <c r="H3" s="26">
-        <v>1</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="35">
+      <c r="C3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="28">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="str">
+      <c r="A4" s="23" t="str">
         <f>"000.002"</f>
         <v>000.002</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="28">
-        <v>1</v>
-      </c>
-      <c r="H4" s="28">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="34">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="22">
+        <v>1</v>
+      </c>
+      <c r="E4" s="22">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="22">
+        <v>1</v>
+      </c>
+      <c r="H4" s="22">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="27">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="str">
+      <c r="A5" s="23" t="str">
         <f>"000.003"</f>
         <v>000.003</v>
       </c>
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5" s="28">
-        <v>1</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="28">
-        <v>1</v>
-      </c>
-      <c r="H5" s="28">
-        <v>1</v>
-      </c>
-      <c r="I5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="34">
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="22">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="22">
+        <v>1</v>
+      </c>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="27">
         <v>500</v>
       </c>
     </row>

--- a/docs/sample01.xlsx
+++ b/docs/sample01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\musicool\Downloads\dev\rep\sheetSystem\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev\sheetSystem\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C7610257-F7A8-4AB0-978F-01C718E9EBCC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{C2FBA4F7-9B59-4C4F-87C3-1F3B9FE0AB20}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{643BD9F1-CB2F-4A12-B52B-8146260CFD2E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1" xr2:uid="{643BD9F1-CB2F-4A12-B52B-8146260CFD2E}"/>
   </bookViews>
   <sheets>
     <sheet name="收付存" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +179,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -232,24 +247,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
       <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
       <bottom style="dotted">
         <color indexed="64"/>
       </bottom>
@@ -260,37 +262,6 @@
       <right style="dotted">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -319,28 +290,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -350,101 +327,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -762,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE6D1AE-88DA-46C2-BC11-95914CF76EC0}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView view="pageBreakPreview" zoomScale="136" zoomScaleNormal="100" zoomScaleSheetLayoutView="136" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -774,228 +742,228 @@
     <col min="7" max="13" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="str">
+      <c r="A3" s="26" t="str">
         <f>"000.000"</f>
         <v>000.000</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="19">
-        <v>1</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="B3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="29" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="str">
+      <c r="A4" s="26" t="str">
         <f>"000.001"</f>
         <v>000.001</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="19">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>1</v>
-      </c>
-      <c r="F4" s="20">
-        <v>1</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="25">
-        <v>1</v>
-      </c>
-      <c r="I4" s="22">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="19">
-        <v>1</v>
-      </c>
-      <c r="L4" s="20">
-        <v>1</v>
-      </c>
-      <c r="M4" s="23" t="s">
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="D4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>1</v>
+      </c>
+      <c r="F4" s="27">
+        <v>1</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="30">
+        <v>1</v>
+      </c>
+      <c r="I4" s="27">
+        <v>1</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="27">
+        <v>1</v>
+      </c>
+      <c r="L4" s="27">
+        <v>1</v>
+      </c>
+      <c r="M4" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="str">
+      <c r="A5" s="26" t="str">
         <f>"000.002"</f>
         <v>000.002</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="19">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="24">
-        <v>1</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="20">
-        <v>1</v>
-      </c>
-      <c r="I5" s="20">
-        <v>1</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-      <c r="L5" s="24">
-        <v>1</v>
-      </c>
-      <c r="M5" s="23" t="s">
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="27">
+        <v>1</v>
+      </c>
+      <c r="F5" s="27">
+        <v>1</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="27">
+        <v>1</v>
+      </c>
+      <c r="I5" s="27">
+        <v>1</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="27">
+        <v>1</v>
+      </c>
+      <c r="L5" s="27">
+        <v>1</v>
+      </c>
+      <c r="M5" s="26" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="12">
-        <v>1</v>
-      </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="5"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="32">
+        <v>1</v>
+      </c>
+      <c r="E6" s="32">
+        <v>1</v>
+      </c>
+      <c r="F6" s="32">
+        <v>1</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+      <c r="I6" s="32">
+        <v>1</v>
+      </c>
+      <c r="J6" s="33"/>
+      <c r="K6" s="32">
+        <v>1</v>
+      </c>
+      <c r="L6" s="32">
+        <v>1</v>
+      </c>
+      <c r="M6" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1009,7 +977,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1017,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7F3C3D-3F77-4E1D-A30B-AE70263AA751}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1029,149 +997,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="38" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="33" t="s">
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="str">
+      <c r="A3" s="7" t="str">
         <f>"000.001"</f>
         <v>000.001</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="20">
-        <v>1</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="20">
-        <v>1</v>
-      </c>
-      <c r="H3" s="20">
-        <v>1</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="28">
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="8">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="14">
         <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="str">
+      <c r="A4" s="11" t="str">
         <f>"000.002"</f>
         <v>000.002</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="22">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="22">
-        <v>1</v>
-      </c>
-      <c r="H4" s="22">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="27">
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="13">
         <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="str">
+      <c r="A5" s="11" t="str">
         <f>"000.003"</f>
         <v>000.003</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="22">
-        <v>1</v>
-      </c>
-      <c r="E5" s="22">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="22">
-        <v>1</v>
-      </c>
-      <c r="H5" s="22">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="27">
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="13">
         <v>500</v>
       </c>
     </row>
